--- a/admin/files/data/studentsSheet.xlsx
+++ b/admin/files/data/studentsSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\local101\admin\files\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\local101-main\admin\files\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D7B13F-F24E-4361-9121-D442BD85BF1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FCA361-CB91-4A6F-B277-4CA573341F4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>FirstName</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>DOB</t>
+  </si>
+  <si>
+    <t>Roll_NO</t>
   </si>
 </sst>
 </file>
@@ -361,18 +364,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -383,40 +386,43 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
     </row>
   </sheetData>
